--- a/Drinks/curry leaf chaas.xlsx
+++ b/Drinks/curry leaf chaas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\Drinks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AC02D3-F8B5-4E1E-85B8-1E4EAEB245BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1B11F-8FFD-48F0-983E-F2A443A8287E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CBC1288-2A94-44F0-92DE-D9C7067027C5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Units</t>
   </si>
@@ -86,16 +86,13 @@
     <t>Recipe adjust in liter</t>
   </si>
   <si>
-    <t>Moringa</t>
-  </si>
-  <si>
     <t>Recipe from archana's kitchen website</t>
   </si>
   <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>kaali mirch</t>
+    <t>Curry leaf</t>
+  </si>
+  <si>
+    <t>sprig</t>
   </si>
 </sst>
 </file>
@@ -155,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,9 +171,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -587,7 +581,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,14 +625,14 @@
       </c>
       <c r="B2" s="6">
         <f>E2*F2/G2</f>
-        <v>3.75</v>
+        <v>3.125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="2">
         <v>2.5</v>
@@ -659,15 +653,15 @@
         <v>8</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B8" si="0">E3*F3/G3</f>
-        <v>8.25</v>
+        <f t="shared" ref="B3:B13" si="0">E3*F3/G3</f>
+        <v>6.875</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="2">
         <v>5.5</v>
@@ -687,21 +681,21 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -713,14 +707,14 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -735,14 +729,14 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F7" s="2">
         <v>1.5</v>
@@ -757,14 +751,14 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -778,20 +772,24 @@
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>2.5</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2.5</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="I10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -799,7 +797,9 @@
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2.5</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
@@ -807,12 +807,15 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" s="2">
+        <v>2.5</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -822,22 +825,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
